--- a/Mifos Automation Excels/Client/2693-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYLATE-RunPERon15thMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2693-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYLATE-RunPERon15thMAR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Head Office</t>
   </si>
@@ -192,19 +192,13 @@
   </si>
   <si>
     <t>validation.msg.periodicaccrual.execution.failed</t>
-  </si>
-  <si>
-    <t>Navigate</t>
-  </si>
-  <si>
-    <t>LoanAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +215,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -278,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,9 +295,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -836,7 +819,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,14 +928,6 @@
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1030,7 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>42</v>
       </c>
@@ -1087,27 +1062,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>699</v>
+        <v>6967</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17">
-        <v>41672</v>
+        <v>41713</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="14">
-        <v>1.37</v>
+        <v>5.28</v>
       </c>
       <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="14">
-        <v>1.37</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="14">
         <v>0</v>
@@ -1118,30 +1093,28 @@
       <c r="J2" s="14">
         <v>0</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>698</v>
+        <v>6966</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17">
-        <v>41671</v>
+        <v>41708</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="14">
-        <v>50.96</v>
+        <v>12.32</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="14">
-        <v>50.96</v>
+        <v>12.32</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -1152,30 +1125,28 @@
       <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>687</v>
+        <v>6953</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17">
-        <v>41671</v>
+        <v>41708</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14">
-        <v>887.72</v>
+      <c r="E4" s="13">
+        <v>1000</v>
       </c>
       <c r="F4" s="14">
-        <v>836.76</v>
+        <v>950.71</v>
       </c>
       <c r="G4" s="14">
-        <v>50.96</v>
+        <v>49.29</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -1183,73 +1154,167 @@
       <c r="I4" s="14">
         <v>0</v>
       </c>
-      <c r="J4" s="19">
-        <v>4163.24</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="18">
+        <v>3214.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>435</v>
+        <v>6965</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="14">
+        <v>36.97</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>36.97</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>6964</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>41672</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1.64</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.64</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6951</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>41672</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14">
+        <v>887.72</v>
+      </c>
+      <c r="F7" s="14">
+        <v>835.12</v>
+      </c>
+      <c r="G7" s="14">
+        <v>52.6</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>4164.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>6963</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>41671</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14">
         <v>50.96</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>50.96</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>680</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6949</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
         <v>41640</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E9" s="13">
         <v>5000</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>5000</v>
       </c>
     </row>
